--- a/biology/Botanique/Guzmania/Guzmania.xlsx
+++ b/biology/Botanique/Guzmania/Guzmania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guzmania est un genre de plantes de la famille des Bromeliaceae qui comprend environ 110 espèces vivaces, le plus souvent épiphytes, plus rarement terrestres, originaires des forêts tropicales de l'Amérique centro-méridionale. Ces plantes ont des feuilles rubanées souples, arquées, disposées en rosette, de couleur vert brillant, formant une hampe florale composée de bractées écarlates ou orange vif, qui portent de petites fleurs tubuleuses jaunes ou blanches, regroupées en épis ou en panicules, fleurissant en hiver ou au début du printemps. Elles peuvent atteindre de 20 centimètres à 1 mètre de haut.
 Le nom du genre a été créé en hommage à Anastasio Guzmán, naturaliste espagnol du XVIIIe siècle.
@@ -512,7 +524,9 @@
           <t>Principales espèces cultivées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guzmania berteroniana (Schult. &amp; Schult. f.) Mez - Originaire de Porto Rico, cette espèce porte une hampe florale dressée, de 40 cm de haut environ, avec des bractées ovales rouge sombre; les fleurs sont de couleur jaune.
 Guzmania devansayana E.Morr. - Cette espèce a des feuilles striées de rouge qui atteignent 60 cm de long, des bractées rouge vif et des fleurs blanches.
@@ -549,16 +563,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de ces plantes nécessite une serre chaude et humide avec un filtrage de la lumière solaire et une température toujours maintenue au-dessus de 18 °C.
 On les cultive en pots ou en récipients de verre, avec des arrosages réguliers, abondants en été et plutôt réduits en hiver; il convient de remplir, une fois par mois, la coupe centrale formée par les feuilles avec de l'eau fraîche et non calcaire, et, en saison chaude, de vaporiser fréquemment les feuilles.
 Pendant la période végétative, la fertilisation se fait à l'aide d'engrais liquide, une fois par mois; les racines sont réduites et ne demandent pas un rempotage.
 La multiplication se fait au printemps, en détachant de la plante mère les yeux apparus à la base, une fois qu'ils se sont enracinés, et en les transplantant dans des pots remplis de terreau pour broméliacées, ou du terreau universel, additionné de tourbe et de sable.
-Ennemis
-L'excès d'eau provoque le pourrissement des racines, tandis que les feuilles brunissent et s'amollissent.
-Un air trop sec et un manque d'humidité peuvent dessécher les pointes des feuilles.
-Des parasites comme les araignées rouges et les pucerons peuvent provoquer des déformations des feuilles et des fleurs.
 </t>
         </is>
       </c>
@@ -584,10 +596,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'excès d'eau provoque le pourrissement des racines, tandis que les feuilles brunissent et s'amollissent.
+Un air trop sec et un manque d'humidité peuvent dessécher les pointes des feuilles.
+Des parasites comme les araignées rouges et les pucerons peuvent provoquer des déformations des feuilles et des fleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guzmania</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guzmania</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste complète d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guzmania acorifolia (Grisebach) Mez
